--- a/Weeks_and_Dates_2023.xlsx
+++ b/Weeks_and_Dates_2023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32E40E2-1C53-4D16-9124-194A5172BE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530D10C-29BC-41F2-9DB4-5DCFF694A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A5C5C46-9D18-401E-AACB-59A9268DC38E}"/>
   </bookViews>
   <sheets>
     <sheet name="Weeks_and_Dates_2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52110A03-D58B-4D77-A868-D4BD515B4D8F}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/Weeks_and_Dates_2023.xlsx
+++ b/Weeks_and_Dates_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530D10C-29BC-41F2-9DB4-5DCFF694A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B4E38-5B1C-47D8-B3DC-7BABE85530BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A5C5C46-9D18-401E-AACB-59A9268DC38E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Week</t>
   </si>
@@ -184,10 +184,13 @@
     <t>24 December to 30 December</t>
   </si>
   <si>
-    <t>Night flights</t>
-  </si>
-  <si>
     <t>arrivals</t>
+  </si>
+  <si>
+    <t>Actual night movements from FOI</t>
+  </si>
+  <si>
+    <t>Updated in combined output</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +511,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,8 +680,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,18 +1038,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52110A03-D58B-4D77-A868-D4BD515B4D8F}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,13 +1058,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1064,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1086,7 +1100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1096,8 +1110,12 @@
       <c r="C5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <f>SUM(C2:C5)</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1119,7 +1137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1130,7 +1148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1140,8 +1158,12 @@
       <c r="C9">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <f>SUM(C6:C9)</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1163,7 +1185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1174,7 +1196,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1185,7 +1207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1195,8 +1217,12 @@
       <c r="C14">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <f>SUM(C10:C14)</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1207,7 +1233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1218,7 +1244,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1229,7 +1255,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1239,8 +1265,12 @@
       <c r="C18">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <f>SUM(C15:C18)</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1254,7 +1284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1268,7 +1298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1295,8 +1325,12 @@
       <c r="D22">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <f>SUM(C19:C22)</f>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1310,7 +1344,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1324,7 +1358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1341,7 +1375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1358,7 +1392,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1374,8 +1408,12 @@
       <c r="E27">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <f>SUM(C23:C27)</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1389,7 +1427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1400,7 +1438,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1411,7 +1449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1421,8 +1459,12 @@
       <c r="C31">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <f>SUM(C28:C31)</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1433,7 +1475,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1443,8 +1485,12 @@
       <c r="C33">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>SUM(C32:C33)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1452,7 +1498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1460,7 +1506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1468,7 +1514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1476,7 +1522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1484,7 +1530,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1492,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1500,7 +1546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1508,7 +1554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1516,7 +1562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1524,7 +1570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1532,7 +1578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1540,7 +1586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1548,7 +1594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1556,7 +1602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/Weeks_and_Dates_2023.xlsx
+++ b/Weeks_and_Dates_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B4E38-5B1C-47D8-B3DC-7BABE85530BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2F391-E0C5-48A5-93A7-60854DE034AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A5C5C46-9D18-401E-AACB-59A9268DC38E}"/>
   </bookViews>
@@ -1038,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52110A03-D58B-4D77-A868-D4BD515B4D8F}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1050,7 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1110,459 +1110,459 @@
       <c r="C5">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>157</v>
+      </c>
+      <c r="H14" s="1">
         <f>SUM(C2:C5)</f>
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>124</v>
-      </c>
-      <c r="F9" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+      <c r="H18" s="1">
         <f>SUM(C6:C9)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>157</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>161</v>
+      </c>
+      <c r="D20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>158</v>
+      </c>
+      <c r="D21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>88</v>
+      </c>
+      <c r="H22" s="1">
         <f>SUM(C10:C14)</f>
         <v>723</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>158</v>
+      </c>
+      <c r="D24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>170</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="D25">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>138</v>
+      </c>
+      <c r="D26">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>138</v>
+      </c>
+      <c r="D27">
+        <v>101</v>
+      </c>
+      <c r="E27">
+        <v>131</v>
+      </c>
+      <c r="H27" s="1">
         <f>SUM(C15:C18)</f>
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>157</v>
-      </c>
-      <c r="D19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>161</v>
-      </c>
-      <c r="D20">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>158</v>
-      </c>
-      <c r="D21">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>150</v>
-      </c>
-      <c r="D22">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>143</v>
+      </c>
+      <c r="D28">
         <v>88</v>
       </c>
-      <c r="F22" s="1">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>126</v>
+      </c>
+      <c r="H31" s="1">
         <f>SUM(C19:C22)</f>
         <v>626</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>150</v>
-      </c>
-      <c r="D23">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>158</v>
-      </c>
-      <c r="D24">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>155</v>
-      </c>
-      <c r="D25">
-        <v>87</v>
-      </c>
-      <c r="E25">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>138</v>
-      </c>
-      <c r="D26">
-        <v>94</v>
-      </c>
-      <c r="E26">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>138</v>
-      </c>
-      <c r="D27">
-        <v>101</v>
-      </c>
-      <c r="E27">
-        <v>131</v>
-      </c>
-      <c r="F27" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1">
         <f>SUM(C23:C27)</f>
         <v>739</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>143</v>
-      </c>
-      <c r="D28">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>126</v>
-      </c>
-      <c r="F31" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="1">
         <f>SUM(C28:C31)</f>
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>130</v>
-      </c>
-      <c r="F33">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42">
         <f>SUM(C32:C33)</f>
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
